--- a/data/Airplane.xlsx
+++ b/data/Airplane.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>3 timmar</t>
   </si>
@@ -35,6 +35,9 @@
     <t>2 timmar</t>
   </si>
   <si>
+    <t>Stockholm - Malmö</t>
+  </si>
+  <si>
     <t>Destination</t>
   </si>
   <si>
@@ -47,15 +50,12 @@
     <t>Hours</t>
   </si>
   <si>
-    <t>Stockholm - Umeå</t>
+    <t>Umeå - Göteborg</t>
   </si>
   <si>
     <t>847 kr</t>
   </si>
   <si>
-    <t>Malmö - Stockholm</t>
-  </si>
-  <si>
     <t>577 kr</t>
   </si>
   <si>
@@ -80,9 +80,6 @@
     <t>Skellefteå - Stockholm</t>
   </si>
   <si>
-    <t>936 kr</t>
-  </si>
-  <si>
     <t>Sundsvall - Stockholm</t>
   </si>
   <si>
@@ -111,19 +108,50 @@
   </si>
   <si>
     <t>59.82 kg</t>
+  </si>
+  <si>
+    <t>Umeå - Stockholm</t>
+  </si>
+  <si>
+    <t>1392 kr</t>
+  </si>
+  <si>
+    <t>151.97 kg</t>
+  </si>
+  <si>
+    <t>62.78 kg</t>
+  </si>
+  <si>
+    <t>1000 kr</t>
+  </si>
+  <si>
+    <t>Växjö - Stockholm</t>
+  </si>
+  <si>
+    <t>334 kr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -146,11 +174,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,7 +461,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:C26"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -441,72 +471,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -517,7 +547,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
@@ -525,37 +555,59 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C11" s="1"/>
